--- a/Pole_Trend_Plunge_Calculator.xlsx
+++ b/Pole_Trend_Plunge_Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bsd405-my.sharepoint.com/personal/s-vakilr_bsd405_org/Documents/Documents 2024-2025/3    IB Math Analysis HL 2/IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{7678875F-5532-44CA-A593-22C69756C5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C70610E8-F185-4F83-98DB-E07E95DE763B}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{7678875F-5532-44CA-A593-22C69756C5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78535F61-6135-4C3C-9D8A-7D44B5E8118E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{68095891-0071-4BE4-97E8-3F0DEA48732F}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>They also calculate the trend and plunge of the line of intersection formed by the first two planes (cells A13 to B14).</t>
   </si>
   <si>
-    <t>This spreadsheet accompanies Applying Stereographic Projection and Vector Mathematics to Model Fault Intersections at https://github.com/rivak7/fault-modeling.</t>
-  </si>
-  <si>
     <t>Pole, trend and plunge calculator.</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>TREND and PLUNGE are calculated for the first two planes (cells A13 to B14)</t>
+  </si>
+  <si>
+    <t>This spreadsheet accompanies my IB Analysis &amp; Approaches HL IA found at https://github.com/rivak7/fault-modeling.</t>
   </si>
 </sst>
 </file>
@@ -103,7 +103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -174,7 +174,7 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -205,6 +205,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,12 +522,12 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -538,7 +542,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -588,7 +592,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -631,15 +635,15 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="1">
-        <f>-COS(RADIANS(A13))*SIN(RADIANS(B13))</f>
+        <f t="shared" ref="D13:D19" si="0">-COS(RADIANS(A13))*SIN(RADIANS(B13))</f>
         <v>-0.33531327181729442</v>
       </c>
       <c r="E13" s="1">
-        <f>SIN(RADIANS(A13))*SIN(RADIANS(B13))</f>
+        <f t="shared" ref="E13:E19" si="1">SIN(RADIANS(A13))*SIN(RADIANS(B13))</f>
         <v>0.42918141642582935</v>
       </c>
       <c r="F13" s="1">
-        <f>-COS(RADIANS(B13))</f>
+        <f t="shared" ref="F13:F19" si="2">-COS(RADIANS(B13))</f>
         <v>-0.83867056794542405</v>
       </c>
       <c r="H13" s="1">
@@ -660,15 +664,15 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="1">
-        <f>-COS(RADIANS(A14))*SIN(RADIANS(B14))</f>
+        <f t="shared" si="0"/>
         <v>0.90575568882040414</v>
       </c>
       <c r="E14" s="1">
-        <f>SIN(RADIANS(A14))*SIN(RADIANS(B14))</f>
+        <f t="shared" si="1"/>
         <v>3.1629685625136669E-2</v>
       </c>
       <c r="F14" s="1">
-        <f>-COS(RADIANS(B14))</f>
+        <f t="shared" si="2"/>
         <v>-0.42261826174069944</v>
       </c>
     </row>
@@ -681,15 +685,15 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1">
-        <f>-COS(RADIANS(A15))*SIN(RADIANS(B15))</f>
+        <f t="shared" si="0"/>
         <v>9.4389932416048691E-2</v>
       </c>
       <c r="E15" s="1">
-        <f>SIN(RADIANS(A15))*SIN(RADIANS(B15))</f>
+        <f t="shared" si="1"/>
         <v>0.44406971807617907</v>
       </c>
       <c r="F15" s="1">
-        <f>-COS(RADIANS(B15))</f>
+        <f t="shared" si="2"/>
         <v>-0.8910065241883679</v>
       </c>
     </row>
@@ -702,15 +706,15 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="1">
-        <f>-COS(RADIANS(A16))*SIN(RADIANS(B16))</f>
+        <f t="shared" si="0"/>
         <v>-0.82951621056227964</v>
       </c>
       <c r="E16" s="1">
-        <f>SIN(RADIANS(A16))*SIN(RADIANS(B16))</f>
+        <f t="shared" si="1"/>
         <v>-0.17631911356666471</v>
       </c>
       <c r="F16" s="1">
-        <f>-COS(RADIANS(B16))</f>
+        <f t="shared" si="2"/>
         <v>-0.5299192642332049</v>
       </c>
     </row>
@@ -722,15 +726,15 @@
         <v>42</v>
       </c>
       <c r="D17" s="1">
-        <f>-COS(RADIANS(A17))*SIN(RADIANS(B17))</f>
+        <f t="shared" si="0"/>
         <v>0.38379754864872873</v>
       </c>
       <c r="E17" s="1">
-        <f>SIN(RADIANS(A17))*SIN(RADIANS(B17))</f>
+        <f t="shared" si="1"/>
         <v>-0.54811970409519128</v>
       </c>
       <c r="F17" s="1">
-        <f>-COS(RADIANS(B17))</f>
+        <f t="shared" si="2"/>
         <v>-0.74314482547739424</v>
       </c>
     </row>
@@ -742,15 +746,15 @@
         <v>61</v>
       </c>
       <c r="D18" s="1">
-        <f>-COS(RADIANS(A18))*SIN(RADIANS(B18))</f>
+        <f t="shared" si="0"/>
         <v>-0.85855047970706577</v>
       </c>
       <c r="E18" s="1">
-        <f>SIN(RADIANS(A18))*SIN(RADIANS(B18))</f>
+        <f t="shared" si="1"/>
         <v>0.16688530765579593</v>
       </c>
       <c r="F18" s="1">
-        <f>-COS(RADIANS(B18))</f>
+        <f t="shared" si="2"/>
         <v>-0.48480962024633711</v>
       </c>
     </row>
@@ -762,15 +766,15 @@
         <v>84</v>
       </c>
       <c r="D19" s="1">
-        <f>-COS(RADIANS(A19))*SIN(RADIANS(B19))</f>
+        <f t="shared" si="0"/>
         <v>0.69085295922231815</v>
       </c>
       <c r="E19" s="1">
-        <f>SIN(RADIANS(A19))*SIN(RADIANS(B19))</f>
+        <f t="shared" si="1"/>
         <v>0.71539918164663052</v>
       </c>
       <c r="F19" s="1">
-        <f>-COS(RADIANS(B19))</f>
+        <f t="shared" si="2"/>
         <v>-0.10452846326765346</v>
       </c>
     </row>
